--- a/medicine/Médecine vétérinaire/Ceva_Santé_animale/Ceva_Santé_animale.xlsx
+++ b/medicine/Médecine vétérinaire/Ceva_Santé_animale/Ceva_Santé_animale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ceva_Sant%C3%A9_animale</t>
+          <t>Ceva_Santé_animale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ceva Santé animale est une société pharmaceutique vétérinaire multinationale, créée en 1999, dont le siège est à Libourne en Gironde. Ceva produit des médicaments, des vaccins ainsi que des équipements et fournit des services pour les animaux d'élevage (ruminants, porcs, volailles) et les animaux de compagnie. En 2020, ce groupe affirme être numéro 5 mondial et premier français dans son domaine, avec un chiffre d'affaires de 1,2 milliard d'euros dans 110 pays où il emploie plus de 5 000 personnes[2]. En France, Ceva est présent dans le Sud Ouest et le Grand Ouest avec 6 sites de production et de recherche : à Libourne (siège social et usine de production pharmaceutique), à Laval (Ceva Laval Campus - ex. Sogeval), à Angers (Ceva Descac Campus et Ceva Biovac Campus), Landivisiau (Ceva Ecat-iD Campus) et à Loudéac (usine de production pharmaceutique)[3]. 
-En 2023, Ceva construit, dans le Sud Ouest, sa plus grande plateforme logistique en Europe[4],[5], à Montpon-Menestérol. 
+Ceva Santé animale est une société pharmaceutique vétérinaire multinationale, créée en 1999, dont le siège est à Libourne en Gironde. Ceva produit des médicaments, des vaccins ainsi que des équipements et fournit des services pour les animaux d'élevage (ruminants, porcs, volailles) et les animaux de compagnie. En 2020, ce groupe affirme être numéro 5 mondial et premier français dans son domaine, avec un chiffre d'affaires de 1,2 milliard d'euros dans 110 pays où il emploie plus de 5 000 personnes. En France, Ceva est présent dans le Sud Ouest et le Grand Ouest avec 6 sites de production et de recherche : à Libourne (siège social et usine de production pharmaceutique), à Laval (Ceva Laval Campus - ex. Sogeval), à Angers (Ceva Descac Campus et Ceva Biovac Campus), Landivisiau (Ceva Ecat-iD Campus) et à Loudéac (usine de production pharmaceutique). 
+En 2023, Ceva construit, dans le Sud Ouest, sa plus grande plateforme logistique en Europe à Montpon-Menestérol. 
 Ceva a été épinglé pour s'être fourni en gonadotrophine chorionique équine dans les fermes à sang de la société Syntex, en Amérique du Sud, accusée de lourdes maltraitances sur les juments poulinières fournisseuses.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ceva_Sant%C3%A9_animale</t>
+          <t>Ceva_Santé_animale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,23 +526,25 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce groupe était jusqu'en 1999 une filiale de Sanofi Aventis[6]. Ceva Santé Animale voit le jour à la suite du rachat de la branche santé animale du groupe Sanofi par le biais d’un premier LBO (Leveraged Buyout). En 2007, lors du troisième LBO, les managers et les salariés acquièrent la majorité du capital[7]. En 2020, selon La Tribune, Ceva est leader français et numéro 5 mondial grâce à une stratégie de croissance interne et par acquisition, avec une présence dans 110 pays. Son chiffre d'affaires est de 765 515 000 d’euros en 2021[8]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce groupe était jusqu'en 1999 une filiale de Sanofi Aventis. Ceva Santé Animale voit le jour à la suite du rachat de la branche santé animale du groupe Sanofi par le biais d’un premier LBO (Leveraged Buyout). En 2007, lors du troisième LBO, les managers et les salariés acquièrent la majorité du capital. En 2020, selon La Tribune, Ceva est leader français et numéro 5 mondial grâce à une stratégie de croissance interne et par acquisition, avec une présence dans 110 pays. Son chiffre d'affaires est de 765 515 000 d’euros en 2021. 
 Parmi ses principales acquisitions :
 2023 : Rachat de Filavie (France) au groupe Grimaud, laboratoire pharmaceutique vétérinaire : solutions biologiques pour la prévention et les alternatives naturelles aux antibiotiques.
-2019 : activité “santé animale” d’IDT Biologika GmbH (Allemagne)[9]
-2017 : Rachat d’une gamme de produits à l’ex-Merial Santé Animale (France)[10]
-2017 : Joint-venture entre EBVAC (Chine) et Ceva Santé Animale pour la création de Ceva Ebvac spécialisée dans la vaccination porcine[11]
-2016 : Hertape Saude Animale Ltda. et Inova Biotecnologia Saude Animale Ltda (Brésil)[12]
-2016 : Biovac à Angers (France)[13]
-2016 : iD Projects à Landivisiau (France)[14]
-2015 : Polchem (Inde)[15]
-2013 : Sogeval à Laval (France)[16]
-2011 : Vetech Laboratories Inc. (Canada)[17]
-2011 : Ceva Huadu, première joint-venture en Chine[18]
-2010 : Summit VetPharm (USA) [19]
-2005 : Biomune (USA)[20]</t>
+2019 : activité “santé animale” d’IDT Biologika GmbH (Allemagne)
+2017 : Rachat d’une gamme de produits à l’ex-Merial Santé Animale (France)
+2017 : Joint-venture entre EBVAC (Chine) et Ceva Santé Animale pour la création de Ceva Ebvac spécialisée dans la vaccination porcine
+2016 : Hertape Saude Animale Ltda. et Inova Biotecnologia Saude Animale Ltda (Brésil)
+2016 : Biovac à Angers (France)
+2016 : iD Projects à Landivisiau (France)
+2015 : Polchem (Inde)
+2013 : Sogeval à Laval (France)
+2011 : Vetech Laboratories Inc. (Canada)
+2011 : Ceva Huadu, première joint-venture en Chine
+2010 : Summit VetPharm (USA) 
+2005 : Biomune (USA)</t>
         </is>
       </c>
     </row>
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ceva_Sant%C3%A9_animale</t>
+          <t>Ceva_Santé_animale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,9 +572,11 @@
           <t>Gouvernance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le siège est à Libourne, en Gironde. Depuis 2009, Ceva Santé Animale est présidée par un vétérinaire, Marc Prikazsky. Son comité exécutif est essentiellement composé de docteurs vétérinaires, de biologistes et de biochimistes[21]. En 2007, les cadres de l'entreprise deviennent les actionnaires majoritaires du groupe[7]. Position confirmée en 2020 à l'occasion de son 5e LBO qui a entraîné une recomposition du capital avec l'arrivée de nouveaux actionnaires[22].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le siège est à Libourne, en Gironde. Depuis 2009, Ceva Santé Animale est présidée par un vétérinaire, Marc Prikazsky. Son comité exécutif est essentiellement composé de docteurs vétérinaires, de biologistes et de biochimistes. En 2007, les cadres de l'entreprise deviennent les actionnaires majoritaires du groupe. Position confirmée en 2020 à l'occasion de son 5e LBO qui a entraîné une recomposition du capital avec l'arrivée de nouveaux actionnaires.
 </t>
         </is>
       </c>
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ceva_Sant%C3%A9_animale</t>
+          <t>Ceva_Santé_animale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le groupe commercialise des produits de santé vétérinaires destinés aux ruminants, volailles, porcs et animaux de compagnie. Il s'occupe également des zoonoses.
 </t>
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ceva_Sant%C3%A9_animale</t>
+          <t>Ceva_Santé_animale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,28 +638,30 @@
           <t>Partenariats et engagements caritatifs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">2018
-Ceva renforce son partenariat avec l'Union Bordeaux Bègles en donnant le nom de Ceva Campus au tout nouveau centre de performance du club de rugby, inauguré en octobre au Stade Moga de Bègles[23].
-Wageningen Bioveterinary Research (WBVR) et Ceva annoncent une nouvelle collaboration visant à développer des vaccins vétérinaires pour le contrôle des maladies infectieuses d’origine animale (ré)émergentes, telles que la fièvre de la Vallée du Rift ou la grippe[24].
-Le Collège de médecine vétérinaire de la Caroline du Nord et Ceva collaborent sur un projet de formation en ligne délivrant une certification en gestion de la santé des volailles aux vétérinaires d'Amérique latine[25].
+Ceva renforce son partenariat avec l'Union Bordeaux Bègles en donnant le nom de Ceva Campus au tout nouveau centre de performance du club de rugby, inauguré en octobre au Stade Moga de Bègles.
+Wageningen Bioveterinary Research (WBVR) et Ceva annoncent une nouvelle collaboration visant à développer des vaccins vétérinaires pour le contrôle des maladies infectieuses d’origine animale (ré)émergentes, telles que la fièvre de la Vallée du Rift ou la grippe.
+Le Collège de médecine vétérinaire de la Caroline du Nord et Ceva collaborent sur un projet de formation en ligne délivrant une certification en gestion de la santé des volailles aux vétérinaires d'Amérique latine.
 2017
-L’École nationale vétérinaire de Toulouse et Ceva signent une convention cadre de partenariat pour développer des projets de recherche et de formation dans le domaine de la santé des animaux de compagnie et d’élevage ainsi que le soutien aux filières du Grand Sud-Ouest[26].
-Ceva est le sponsor officiel d’AQUITANIMA, le Salon de l'Élevage et de la Génétique Bovine en Nouvelle-Aquitaine, qui se tient tous les ans au Parc des Expositions de Bordeaux[27]. 
-L’Association Vétérinaire Mondiale, et Ceva annoncent la création des Global Animal Welfare Awards. Un prix qui vise à distinguer et récompenser les vétérinaires qui contribuent à la protection et au bien-être des animaux[28].
+L’École nationale vétérinaire de Toulouse et Ceva signent une convention cadre de partenariat pour développer des projets de recherche et de formation dans le domaine de la santé des animaux de compagnie et d’élevage ainsi que le soutien aux filières du Grand Sud-Ouest.
+Ceva est le sponsor officiel d’AQUITANIMA, le Salon de l'Élevage et de la Génétique Bovine en Nouvelle-Aquitaine, qui se tient tous les ans au Parc des Expositions de Bordeaux. 
+L’Association Vétérinaire Mondiale, et Ceva annoncent la création des Global Animal Welfare Awards. Un prix qui vise à distinguer et récompenser les vétérinaires qui contribuent à la protection et au bien-être des animaux.
 2015
-La filiale australienne de Ceva relance la fabrication d’un antibiotique pour sauver les koalas menacés par la chlamydiose, une maladie sexuellement transmissible entraînant l’infertilité, la cécité et même la mort[29].
-Ceva obtient une subvention de la Bill &amp; Melinda Gates Foundation pour former des vétérinaires et renforcer la production laitière et avicole, au Bangladesh et au Burkina Faso[30]. Ces projets visent à aider les éleveurs, à améliorer la santé et la productivité de leurs élevages, et contribuent à l’autonomie alimentaire des populations de ces pays en développement.
+La filiale australienne de Ceva relance la fabrication d’un antibiotique pour sauver les koalas menacés par la chlamydiose, une maladie sexuellement transmissible entraînant l’infertilité, la cécité et même la mort.
+Ceva obtient une subvention de la Bill &amp; Melinda Gates Foundation pour former des vétérinaires et renforcer la production laitière et avicole, au Bangladesh et au Burkina Faso. Ces projets visent à aider les éleveurs, à améliorer la santé et la productivité de leurs élevages, et contribuent à l’autonomie alimentaire des populations de ces pays en développement.
 2013
-Ceva Santé Animale et le CNRS viennent au secours des albatros de l’île d’Amsterdam. Cette espèce, aujourd’hui en voie de disparition, subit une épidémie de choléra aviaire qui éradique les poussins[31].
+Ceva Santé Animale et le CNRS viennent au secours des albatros de l’île d’Amsterdam. Cette espèce, aujourd’hui en voie de disparition, subit une épidémie de choléra aviaire qui éradique les poussins.
 2012
-Ceva sponsorise les UK Animal Welfare Awards, en partenariat avec le Veterinary Times et le VN Times[32].
-Avec la Fondation du Patrimoine, Ceva Santé Animale soutient l'agrobiodiversité animale avec un prix national[33] qui en est à sa sixième édition en 2017. Il récompense des projets qui visent à préserver des races d'animaux d'élevage en voie d'extinction.
+Ceva sponsorise les UK Animal Welfare Awards, en partenariat avec le Veterinary Times et le VN Times.
+Avec la Fondation du Patrimoine, Ceva Santé Animale soutient l'agrobiodiversité animale avec un prix national qui en est à sa sixième édition en 2017. Il récompense des projets qui visent à préserver des races d'animaux d'élevage en voie d'extinction.
 2011
-Ceva soutient le Conservatoire des Races d'Aquitaine qui agit pour la préservation de races locales à faible effectif telles que le poney landais ou la vache bordelaise[34]. Il l’accompagne dans sa démarche d’étude et de gestion des ressources génétiques régionales.
+Ceva soutient le Conservatoire des Races d'Aquitaine qui agit pour la préservation de races locales à faible effectif telles que le poney landais ou la vache bordelaise. Il l’accompagne dans sa démarche d’étude et de gestion des ressources génétiques régionales.
 2010
-Ceva parraine l’International Association of Human-Animal Interaction Organizations (IAHAIO), le plus grand forum mondial de promotion des bienfaits des interactions homme-animal dans le domaine des sciences, de la recherche, ou de l’éducation[35].
+Ceva parraine l’International Association of Human-Animal Interaction Organizations (IAHAIO), le plus grand forum mondial de promotion des bienfaits des interactions homme-animal dans le domaine des sciences, de la recherche, ou de l’éducation.
 </t>
         </is>
       </c>
@@ -652,7 +672,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ceva_Sant%C3%A9_animale</t>
+          <t>Ceva_Santé_animale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -670,12 +690,14 @@
           <t>Affaires avec les fermes à sang</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceva a financé plusieurs études de l'effet de l'hormone gonadotrophine chorionique équine (ou eCG) sur la productivité des animaux de rente[36],[37], dont une à l'école nationale vétérinaire d'Alfort en 2001[38]. Les produits concernés sont commercialisés sous les noms de « Fertipig » en porcins[39],[40],[41], et « Syncro Part »[42],[43] ou Syncrostim[44] en bovins[45].
-D'après une enquête publiée par la journaliste française Sarah Finger dans Libération, l'hormone nécessaire à la production est achetée par CEVA dans les fermes à sang de la société Syntex[46], accusée de cruauté envers les animaux, entre autres, par les ONG Eyes on Animals (Pays-Bas)[40], Tierschutzbund Zurich (TSB - Suisse), Animal Welfare Foundation (AWF - Allemagne)[47],[46] et Welfarm (France)[45].
-Pierre Revel-Mouroz, directeur général délégué chargé de l’audit à Ceva Santé Animale, alerté dès 2015, a justifié ce choix par « l'absence de détection d'anomalies dans la ferme où le laboratoire s'approvisionne »[48],[46]. D'après Sarah Finger, Ceva continuait de se fournir chez Syntex mi-juillet 2018, malgré des alertes répétées : son article dénonce une « inertie coupable »[49],[50]. Le 25 juillet 2018, Ceva annonce l'ouverture d'une enquête de vérification de la qualité de vie des juments concernées[51]. Le 3 août 2018, le laboratoire indique (sur son site) renoncer à se fournir en Amérique du Sud[52],[53]. Le 16 décembre 2018, le collectif Boucherie Abolition publie un article accusant la multinationale « d'orchestrer un zoocide mondial »[54].
-L'association Welfarm rencontre Ceva en septembre 2018 : le laboratoire annonce rechercher un nouveau fournisseur d'eCG, et travailler au développement d'une alternative synthétique[55]. Le 16 septembre 2019, sa filiale brésilienne annonce avoir développé un protocole alternatif sans hormone eCG, avec d'excellents résultats sur le terrain[56]. Cependant, d'après une nouvele enquête de Welfarm publiée en 2021, le laboratoire s'approvisionne désormais en Islande, où des maltraitances de juments sont également perpétrées[57].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceva a financé plusieurs études de l'effet de l'hormone gonadotrophine chorionique équine (ou eCG) sur la productivité des animaux de rente dont une à l'école nationale vétérinaire d'Alfort en 2001. Les produits concernés sont commercialisés sous les noms de « Fertipig » en porcins et « Syncro Part », ou Syncrostim en bovins.
+D'après une enquête publiée par la journaliste française Sarah Finger dans Libération, l'hormone nécessaire à la production est achetée par CEVA dans les fermes à sang de la société Syntex, accusée de cruauté envers les animaux, entre autres, par les ONG Eyes on Animals (Pays-Bas), Tierschutzbund Zurich (TSB - Suisse), Animal Welfare Foundation (AWF - Allemagne), et Welfarm (France).
+Pierre Revel-Mouroz, directeur général délégué chargé de l’audit à Ceva Santé Animale, alerté dès 2015, a justifié ce choix par « l'absence de détection d'anomalies dans la ferme où le laboratoire s'approvisionne »,. D'après Sarah Finger, Ceva continuait de se fournir chez Syntex mi-juillet 2018, malgré des alertes répétées : son article dénonce une « inertie coupable »,. Le 25 juillet 2018, Ceva annonce l'ouverture d'une enquête de vérification de la qualité de vie des juments concernées. Le 3 août 2018, le laboratoire indique (sur son site) renoncer à se fournir en Amérique du Sud,. Le 16 décembre 2018, le collectif Boucherie Abolition publie un article accusant la multinationale « d'orchestrer un zoocide mondial ».
+L'association Welfarm rencontre Ceva en septembre 2018 : le laboratoire annonce rechercher un nouveau fournisseur d'eCG, et travailler au développement d'une alternative synthétique. Le 16 septembre 2019, sa filiale brésilienne annonce avoir développé un protocole alternatif sans hormone eCG, avec d'excellents résultats sur le terrain. Cependant, d'après une nouvele enquête de Welfarm publiée en 2021, le laboratoire s'approvisionne désormais en Islande, où des maltraitances de juments sont également perpétrées.
 </t>
         </is>
       </c>
